--- a/biology/Mycologie/Zopfiaceae/Zopfiaceae.xlsx
+++ b/biology/Mycologie/Zopfiaceae/Zopfiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Zopfiaceae sont une famille de champignons de l'ordre des Pleosporales.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Zopfiaceae G. Arnaud ex D. Hawksw., 1992[1]. Le nom a été initialement publié en 1913 de manière invalide par le mycologue français Gabriel Arnaud (d)[2], avant d'être validement republié en 1992 par le Britannique David Leslie Hawksworth (d)[3]. Zopfia Rabenh., 1874 est le genre type.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Zopfiaceae G. Arnaud ex D. Hawksw., 1992. Le nom a été initialement publié en 1913 de manière invalide par le mycologue français Gabriel Arnaud (d), avant d'être validement republié en 1992 par le Britannique David Leslie Hawksworth (d). Zopfia Rabenh., 1874 est le genre type.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (16 novembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (16 novembre 2023) :
 Celtidia J.D. Janse, 1897
 Coronopapilla Kohlm. &amp; Volkm.-Kohlm., 1990
 Didymocrea Kowalski, 1965
